--- a/static/download/2020/RP3_APT_TxOut_2020_Jan_Dec.xlsx
+++ b/static/download/2020/RP3_APT_TxOut_2020_Jan_Dec.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="131">
   <si>
     <t>Data source</t>
   </si>
@@ -399,6 +399,12 @@
   </si>
   <si>
     <t>UK airports removed</t>
+  </si>
+  <si>
+    <t>EDDB, GCLP, LFBO, LIME, LIML, LROP</t>
+  </si>
+  <si>
+    <t>data included (processing issues)</t>
   </si>
 </sst>
 </file>
@@ -656,10 +662,10 @@
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="7" numFmtId="17" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
@@ -728,7 +734,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="8">
-        <v>44243.0</v>
+        <v>44351.0</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>5</v>
@@ -805,7 +811,7 @@
         <v>46067.0</v>
       </c>
       <c r="E6" s="25">
-        <f>F6/D6</f>
+        <f t="shared" ref="E6:E18" si="1">F6/D6</f>
         <v>1.355200035</v>
       </c>
       <c r="F6" s="24">
@@ -825,10 +831,19 @@
       <c r="C7" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="24"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="28"/>
+      <c r="D7" s="24">
+        <v>20508.0</v>
+      </c>
+      <c r="E7" s="25">
+        <f t="shared" si="1"/>
+        <v>1.294287189</v>
+      </c>
+      <c r="F7" s="24">
+        <v>26543.24167</v>
+      </c>
+      <c r="G7" s="28">
+        <v>8.13</v>
+      </c>
     </row>
     <row r="8" ht="12.75" customHeight="1">
       <c r="A8" s="22" t="s">
@@ -844,7 +859,7 @@
         <v>102154.0</v>
       </c>
       <c r="E8" s="25">
-        <f t="shared" ref="E8:E18" si="1">F8/D8</f>
+        <f t="shared" si="1"/>
         <v>1.902852556</v>
       </c>
       <c r="F8" s="24">
@@ -1123,7 +1138,7 @@
         <v>53896.0</v>
       </c>
       <c r="E20" s="25">
-        <f t="shared" ref="E20:E22" si="2">F20/D20</f>
+        <f t="shared" ref="E20:E24" si="2">F20/D20</f>
         <v>2.676098412</v>
       </c>
       <c r="F20" s="24">
@@ -1191,10 +1206,19 @@
       <c r="C23" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="D23" s="24"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="24"/>
-      <c r="G23" s="28"/>
+      <c r="D23" s="24">
+        <v>32025.0</v>
+      </c>
+      <c r="E23" s="25">
+        <f t="shared" si="2"/>
+        <v>1.091907364</v>
+      </c>
+      <c r="F23" s="24">
+        <v>34968.33333</v>
+      </c>
+      <c r="G23" s="28">
+        <v>6.93</v>
+      </c>
     </row>
     <row r="24" ht="12.75" customHeight="1">
       <c r="A24" s="22" t="s">
@@ -1210,7 +1234,7 @@
         <v>17531.0</v>
       </c>
       <c r="E24" s="25">
-        <f>F24/D24</f>
+        <f t="shared" si="2"/>
         <v>0.7004164052</v>
       </c>
       <c r="F24" s="24">
@@ -1255,7 +1279,7 @@
         <v>78585.0</v>
       </c>
       <c r="E26" s="25">
-        <f t="shared" ref="E26:E28" si="3">F26/D26</f>
+        <f t="shared" ref="E26:E30" si="3">F26/D26</f>
         <v>2.116854362</v>
       </c>
       <c r="F26" s="24">
@@ -1323,10 +1347,19 @@
       <c r="C29" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="D29" s="24"/>
-      <c r="E29" s="25"/>
-      <c r="F29" s="24"/>
-      <c r="G29" s="28"/>
+      <c r="D29" s="24">
+        <v>16500.0</v>
+      </c>
+      <c r="E29" s="25">
+        <f t="shared" si="3"/>
+        <v>0.4252727273</v>
+      </c>
+      <c r="F29" s="24">
+        <v>7017.0</v>
+      </c>
+      <c r="G29" s="28">
+        <v>8.72</v>
+      </c>
     </row>
     <row r="30" ht="12.75" customHeight="1">
       <c r="A30" s="22" t="s">
@@ -1342,7 +1375,7 @@
         <v>21722.0</v>
       </c>
       <c r="E30" s="25">
-        <f>F30/D30</f>
+        <f t="shared" si="3"/>
         <v>0.5075499494</v>
       </c>
       <c r="F30" s="24">
@@ -1381,7 +1414,7 @@
         <v>29346.0</v>
       </c>
       <c r="E32" s="25">
-        <f t="shared" ref="E32:E37" si="4">F32/D32</f>
+        <f t="shared" ref="E32:E48" si="4">F32/D32</f>
         <v>0.8161589314</v>
       </c>
       <c r="F32" s="24">
@@ -1521,10 +1554,19 @@
       <c r="C38" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="D38" s="24"/>
-      <c r="E38" s="24"/>
-      <c r="F38" s="24"/>
-      <c r="G38" s="28"/>
+      <c r="D38" s="24">
+        <v>19156.0</v>
+      </c>
+      <c r="E38" s="25">
+        <f t="shared" si="4"/>
+        <v>1.015425976</v>
+      </c>
+      <c r="F38" s="24">
+        <v>19451.5</v>
+      </c>
+      <c r="G38" s="28">
+        <v>9.33</v>
+      </c>
     </row>
     <row r="39" ht="12.75" customHeight="1">
       <c r="A39" s="22" t="s">
@@ -1536,10 +1578,19 @@
       <c r="C39" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="D39" s="24"/>
-      <c r="E39" s="25"/>
-      <c r="F39" s="24"/>
-      <c r="G39" s="28"/>
+      <c r="D39" s="24">
+        <v>19643.0</v>
+      </c>
+      <c r="E39" s="25">
+        <f t="shared" si="4"/>
+        <v>1.928939911</v>
+      </c>
+      <c r="F39" s="24">
+        <v>37890.16667</v>
+      </c>
+      <c r="G39" s="28">
+        <v>9.7</v>
+      </c>
     </row>
     <row r="40" ht="12.75" customHeight="1">
       <c r="A40" s="22" t="s">
@@ -1555,7 +1606,7 @@
         <v>16609.0</v>
       </c>
       <c r="E40" s="25">
-        <f t="shared" ref="E40:E45" si="5">F40/D40</f>
+        <f t="shared" si="4"/>
         <v>1.381239087</v>
       </c>
       <c r="F40" s="24">
@@ -1579,7 +1630,7 @@
         <v>47317.0</v>
       </c>
       <c r="E41" s="25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>3.131348141</v>
       </c>
       <c r="F41" s="24">
@@ -1603,7 +1654,7 @@
         <v>24396.0</v>
       </c>
       <c r="E42" s="25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1.356164945</v>
       </c>
       <c r="F42" s="24">
@@ -1627,7 +1678,7 @@
         <v>51055.0</v>
       </c>
       <c r="E43" s="25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>2.073175987</v>
       </c>
       <c r="F43" s="24">
@@ -1651,7 +1702,7 @@
         <v>21725.0</v>
       </c>
       <c r="E44" s="25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1.450356732</v>
       </c>
       <c r="F44" s="24">
@@ -1675,7 +1726,7 @@
         <v>43133.0</v>
       </c>
       <c r="E45" s="25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>2.682215473</v>
       </c>
       <c r="F45" s="24">
@@ -1695,10 +1746,19 @@
       <c r="C46" s="23" t="s">
         <v>117</v>
       </c>
-      <c r="D46" s="24"/>
-      <c r="E46" s="25"/>
-      <c r="F46" s="24"/>
-      <c r="G46" s="28"/>
+      <c r="D46" s="24">
+        <v>22637.0</v>
+      </c>
+      <c r="E46" s="25">
+        <f t="shared" si="4"/>
+        <v>1.951230287</v>
+      </c>
+      <c r="F46" s="24">
+        <v>44170.0</v>
+      </c>
+      <c r="G46" s="28">
+        <v>7.72</v>
+      </c>
     </row>
     <row r="47" ht="12.75" customHeight="1">
       <c r="A47" s="22" t="s">
@@ -1714,7 +1774,7 @@
         <v>40729.0</v>
       </c>
       <c r="E47" s="25">
-        <f t="shared" ref="E47:E48" si="6">F47/D47</f>
+        <f t="shared" si="4"/>
         <v>2.056470819</v>
       </c>
       <c r="F47" s="24">
@@ -1738,7 +1798,7 @@
         <v>53385.0</v>
       </c>
       <c r="E48" s="25">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>2.228865786</v>
       </c>
       <c r="F48" s="24">
@@ -1764,7 +1824,7 @@
   <sheetFormatPr customHeight="1" defaultColWidth="17.29" defaultRowHeight="15.0"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="18.43"/>
-    <col customWidth="1" min="2" max="2" width="18.14"/>
+    <col customWidth="1" min="2" max="2" width="26.43"/>
     <col customWidth="1" min="3" max="3" width="8.0"/>
     <col customWidth="1" min="4" max="4" width="92.57"/>
   </cols>
@@ -1798,16 +1858,24 @@
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="34"/>
-      <c r="B3" s="35"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="35"/>
+      <c r="A3" s="31">
+        <v>44351.0</v>
+      </c>
+      <c r="B3" s="34" t="s">
+        <v>129</v>
+      </c>
+      <c r="C3" s="35">
+        <v>2020.0</v>
+      </c>
+      <c r="D3" s="34" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="34"/>
-      <c r="B4" s="35"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="35"/>
+      <c r="A4" s="35"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="34"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="31"/>

--- a/static/download/2020/RP3_APT_TxOut_2020_Jan_Dec.xlsx
+++ b/static/download/2020/RP3_APT_TxOut_2020_Jan_Dec.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="132">
   <si>
     <t>Data source</t>
   </si>
@@ -405,6 +405,9 @@
   </si>
   <si>
     <t>data included (processing issues)</t>
+  </si>
+  <si>
+    <t>EDDK,EDDS, EPWA,LEMG,LFMN,LFPO,LIRF</t>
   </si>
 </sst>
 </file>
@@ -836,10 +839,10 @@
       </c>
       <c r="E7" s="25">
         <f t="shared" si="1"/>
-        <v>1.294287189</v>
+        <v>1.294275405</v>
       </c>
       <c r="F7" s="24">
-        <v>26543.24167</v>
+        <v>26543.0</v>
       </c>
       <c r="G7" s="28">
         <v>8.13</v>
@@ -904,17 +907,17 @@
         <v>23</v>
       </c>
       <c r="D10" s="24">
-        <v>34758.0</v>
+        <v>37590.0</v>
       </c>
       <c r="E10" s="25">
         <f t="shared" si="1"/>
-        <v>1.331233097</v>
+        <v>1.355839319</v>
       </c>
       <c r="F10" s="24">
-        <v>46271.0</v>
+        <v>50966.0</v>
       </c>
       <c r="G10" s="28">
-        <v>10.09</v>
+        <v>10.03</v>
       </c>
     </row>
     <row r="11" ht="12.75" customHeight="1">
@@ -976,17 +979,17 @@
         <v>23</v>
       </c>
       <c r="D13" s="24">
-        <v>24205.0</v>
+        <v>26794.0</v>
       </c>
       <c r="E13" s="25">
         <f t="shared" si="1"/>
-        <v>1.881098946</v>
+        <v>1.85328805</v>
       </c>
       <c r="F13" s="24">
-        <v>45532.0</v>
+        <v>49657.0</v>
       </c>
       <c r="G13" s="28">
-        <v>8.39</v>
+        <v>8.37</v>
       </c>
     </row>
     <row r="14" ht="12.75" customHeight="1">
@@ -1138,7 +1141,7 @@
         <v>53896.0</v>
       </c>
       <c r="E20" s="25">
-        <f t="shared" ref="E20:E24" si="2">F20/D20</f>
+        <f t="shared" ref="E20:E30" si="2">F20/D20</f>
         <v>2.676098412</v>
       </c>
       <c r="F20" s="24">
@@ -1159,17 +1162,17 @@
         <v>57</v>
       </c>
       <c r="D21" s="24">
-        <v>36868.0</v>
+        <v>39160.0</v>
       </c>
       <c r="E21" s="25">
         <f t="shared" si="2"/>
-        <v>1.966773354</v>
+        <v>1.988636364</v>
       </c>
       <c r="F21" s="24">
-        <v>72511.0</v>
+        <v>77875.0</v>
       </c>
       <c r="G21" s="28">
-        <v>7.15</v>
+        <v>7.13</v>
       </c>
     </row>
     <row r="22" ht="12.75" customHeight="1">
@@ -1211,10 +1214,10 @@
       </c>
       <c r="E23" s="25">
         <f t="shared" si="2"/>
-        <v>1.091907364</v>
+        <v>1.091896956</v>
       </c>
       <c r="F23" s="24">
-        <v>34968.33333</v>
+        <v>34968.0</v>
       </c>
       <c r="G23" s="28">
         <v>6.93</v>
@@ -1257,7 +1260,10 @@
       <c r="D25" s="24">
         <v>59712.0</v>
       </c>
-      <c r="E25" s="24"/>
+      <c r="E25" s="25">
+        <f t="shared" si="2"/>
+        <v>1.844738076</v>
+      </c>
       <c r="F25" s="24">
         <v>110153.0</v>
       </c>
@@ -1279,7 +1285,7 @@
         <v>78585.0</v>
       </c>
       <c r="E26" s="25">
-        <f t="shared" ref="E26:E30" si="3">F26/D26</f>
+        <f t="shared" si="2"/>
         <v>2.116854362</v>
       </c>
       <c r="F26" s="24">
@@ -1300,17 +1306,17 @@
         <v>63</v>
       </c>
       <c r="D27" s="24">
-        <v>25432.0</v>
+        <v>26908.0</v>
       </c>
       <c r="E27" s="25">
-        <f t="shared" si="3"/>
-        <v>1.397648632</v>
+        <f t="shared" si="2"/>
+        <v>1.393117289</v>
       </c>
       <c r="F27" s="24">
-        <v>35545.0</v>
+        <v>37486.0</v>
       </c>
       <c r="G27" s="26">
-        <v>8.68</v>
+        <v>8.66</v>
       </c>
     </row>
     <row r="28" ht="12.75" customHeight="1">
@@ -1327,7 +1333,7 @@
         <v>36944.0</v>
       </c>
       <c r="E28" s="25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.6868503681</v>
       </c>
       <c r="F28" s="24">
@@ -1351,7 +1357,7 @@
         <v>16500.0</v>
       </c>
       <c r="E29" s="25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.4252727273</v>
       </c>
       <c r="F29" s="24">
@@ -1375,7 +1381,7 @@
         <v>21722.0</v>
       </c>
       <c r="E30" s="25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.5075499494</v>
       </c>
       <c r="F30" s="24">
@@ -1411,17 +1417,17 @@
         <v>76</v>
       </c>
       <c r="D32" s="24">
-        <v>29346.0</v>
+        <v>33034.0</v>
       </c>
       <c r="E32" s="25">
-        <f t="shared" ref="E32:E48" si="4">F32/D32</f>
-        <v>0.8161589314</v>
+        <f t="shared" ref="E32:E48" si="3">F32/D32</f>
+        <v>0.7745655991</v>
       </c>
       <c r="F32" s="24">
-        <v>23951.0</v>
+        <v>25587.0</v>
       </c>
       <c r="G32" s="28">
-        <v>8.04</v>
+        <v>7.97</v>
       </c>
     </row>
     <row r="33" ht="12.75" customHeight="1">
@@ -1438,7 +1444,7 @@
         <v>107728.0</v>
       </c>
       <c r="E33" s="25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2.173641022</v>
       </c>
       <c r="F33" s="24">
@@ -1459,17 +1465,17 @@
         <v>76</v>
       </c>
       <c r="D34" s="24">
-        <v>38246.0</v>
+        <v>41388.0</v>
       </c>
       <c r="E34" s="25">
-        <f t="shared" si="4"/>
-        <v>1.202374104</v>
+        <f t="shared" si="3"/>
+        <v>1.219435585</v>
       </c>
       <c r="F34" s="24">
-        <v>45986.0</v>
+        <v>50470.0</v>
       </c>
       <c r="G34" s="28">
-        <v>8.97</v>
+        <v>9.02</v>
       </c>
     </row>
     <row r="35" ht="12.75" customHeight="1">
@@ -1486,7 +1492,7 @@
         <v>51543.0</v>
       </c>
       <c r="E35" s="25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1.537298954</v>
       </c>
       <c r="F35" s="24">
@@ -1510,7 +1516,7 @@
         <v>22268.0</v>
       </c>
       <c r="E36" s="25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.868915035</v>
       </c>
       <c r="F36" s="24">
@@ -1534,7 +1540,7 @@
         <v>43246.0</v>
       </c>
       <c r="E37" s="25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2.661147852</v>
       </c>
       <c r="F37" s="24">
@@ -1558,11 +1564,11 @@
         <v>19156.0</v>
       </c>
       <c r="E38" s="25">
-        <f t="shared" si="4"/>
-        <v>1.015425976</v>
+        <f t="shared" si="3"/>
+        <v>1.015452078</v>
       </c>
       <c r="F38" s="24">
-        <v>19451.5</v>
+        <v>19452.0</v>
       </c>
       <c r="G38" s="28">
         <v>9.33</v>
@@ -1582,11 +1588,11 @@
         <v>19643.0</v>
       </c>
       <c r="E39" s="25">
-        <f t="shared" si="4"/>
-        <v>1.928939911</v>
+        <f t="shared" si="3"/>
+        <v>1.928931426</v>
       </c>
       <c r="F39" s="24">
-        <v>37890.16667</v>
+        <v>37890.0</v>
       </c>
       <c r="G39" s="28">
         <v>9.7</v>
@@ -1606,7 +1612,7 @@
         <v>16609.0</v>
       </c>
       <c r="E40" s="25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1.381239087</v>
       </c>
       <c r="F40" s="24">
@@ -1627,14 +1633,14 @@
         <v>95</v>
       </c>
       <c r="D41" s="24">
-        <v>47317.0</v>
+        <v>49978.0</v>
       </c>
       <c r="E41" s="25">
-        <f t="shared" si="4"/>
-        <v>3.131348141</v>
+        <f t="shared" si="3"/>
+        <v>3.097722998</v>
       </c>
       <c r="F41" s="24">
-        <v>148166.0</v>
+        <v>154818.0</v>
       </c>
       <c r="G41" s="28">
         <v>11.72</v>
@@ -1654,7 +1660,7 @@
         <v>24396.0</v>
       </c>
       <c r="E42" s="25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1.356164945</v>
       </c>
       <c r="F42" s="24">
@@ -1678,7 +1684,7 @@
         <v>51055.0</v>
       </c>
       <c r="E43" s="25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2.073175987</v>
       </c>
       <c r="F43" s="24">
@@ -1702,7 +1708,7 @@
         <v>21725.0</v>
       </c>
       <c r="E44" s="25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1.450356732</v>
       </c>
       <c r="F44" s="24">
@@ -1726,7 +1732,7 @@
         <v>43133.0</v>
       </c>
       <c r="E45" s="25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2.682215473</v>
       </c>
       <c r="F45" s="24">
@@ -1750,7 +1756,7 @@
         <v>22637.0</v>
       </c>
       <c r="E46" s="25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1.951230287</v>
       </c>
       <c r="F46" s="24">
@@ -1774,7 +1780,7 @@
         <v>40729.0</v>
       </c>
       <c r="E47" s="25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2.056470819</v>
       </c>
       <c r="F47" s="24">
@@ -1798,7 +1804,7 @@
         <v>53385.0</v>
       </c>
       <c r="E48" s="25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2.228865786</v>
       </c>
       <c r="F48" s="24">
@@ -1872,10 +1878,18 @@
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="35"/>
-      <c r="B4" s="34"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="34"/>
+      <c r="A4" s="31">
+        <v>44406.0</v>
+      </c>
+      <c r="B4" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="C4" s="35">
+        <v>2020.0</v>
+      </c>
+      <c r="D4" s="34" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="31"/>
